--- a/Code/Results/Cases/Case_5_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_161/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.0357075181607</v>
+        <v>14.48654696685571</v>
       </c>
       <c r="C2">
-        <v>14.52202683879607</v>
+        <v>8.240977258690494</v>
       </c>
       <c r="D2">
-        <v>6.251675127145923</v>
+        <v>9.235474447145386</v>
       </c>
       <c r="E2">
-        <v>8.426544217975437</v>
+        <v>13.51009371198972</v>
       </c>
       <c r="F2">
-        <v>21.82883022682498</v>
+        <v>31.73970379576936</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.645155005154264</v>
+        <v>9.944062962671381</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.13094006119542</v>
+        <v>16.71181436925981</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.40987418494834</v>
+        <v>23.80790824098548</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.63723411814867</v>
+        <v>13.91101951493271</v>
       </c>
       <c r="C3">
-        <v>13.63893731756808</v>
+        <v>7.730390033143972</v>
       </c>
       <c r="D3">
-        <v>6.063197342496379</v>
+        <v>9.216359259248561</v>
       </c>
       <c r="E3">
-        <v>8.3355988495444</v>
+        <v>13.53106918420202</v>
       </c>
       <c r="F3">
-        <v>21.53719699929974</v>
+        <v>31.83984451700819</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.700659386552225</v>
+        <v>9.974609070204281</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.29660241703557</v>
+        <v>16.52247938479741</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.37565761430278</v>
+        <v>23.91556842161778</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.72843492882205</v>
+        <v>13.54625247433378</v>
       </c>
       <c r="C4">
-        <v>13.06747350851258</v>
+        <v>7.397928264072198</v>
       </c>
       <c r="D4">
-        <v>5.946596979797203</v>
+        <v>9.205663590727967</v>
       </c>
       <c r="E4">
-        <v>8.284308747228062</v>
+        <v>13.54613840086089</v>
       </c>
       <c r="F4">
-        <v>21.38425187339066</v>
+        <v>31.91096345801167</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.737334445634705</v>
+        <v>9.994593257764556</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.76308171582183</v>
+        <v>16.40714083840774</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.37569613785304</v>
+        <v>23.98855442043285</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.34541608796003</v>
+        <v>13.39495098139633</v>
       </c>
       <c r="C5">
-        <v>12.82728594808101</v>
+        <v>7.257699424193824</v>
       </c>
       <c r="D5">
-        <v>5.89892207137123</v>
+        <v>9.201569485162482</v>
       </c>
       <c r="E5">
-        <v>8.264542925287683</v>
+        <v>13.55282988678279</v>
       </c>
       <c r="F5">
-        <v>21.32833134266002</v>
+        <v>31.94235665550615</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.752917478866241</v>
+        <v>10.00304635976545</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.5405085629883</v>
+        <v>16.36041412054752</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.38075907498776</v>
+        <v>24.02002025669163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.28104857320491</v>
+        <v>13.36967364434069</v>
       </c>
       <c r="C6">
-        <v>12.7869630299757</v>
+        <v>7.234128484294719</v>
       </c>
       <c r="D6">
-        <v>5.890997917148827</v>
+        <v>9.200905709831332</v>
       </c>
       <c r="E6">
-        <v>8.261329088503208</v>
+        <v>13.55397425717083</v>
       </c>
       <c r="F6">
-        <v>21.31942747235992</v>
+        <v>31.94771481285352</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.755543127907655</v>
+        <v>10.00446868885881</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.5032449429684</v>
+        <v>16.35267307713041</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.38189732089278</v>
+        <v>24.02534901580603</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.72332081563951</v>
+        <v>13.54422242994908</v>
       </c>
       <c r="C7">
-        <v>13.06426378834518</v>
+        <v>7.396056282142316</v>
       </c>
       <c r="D7">
-        <v>5.945954581306474</v>
+        <v>9.205607301969509</v>
       </c>
       <c r="E7">
-        <v>8.284037595128027</v>
+        <v>13.54622641516094</v>
       </c>
       <c r="F7">
-        <v>21.38347200423895</v>
+        <v>31.91137708725528</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.73754204090912</v>
+        <v>9.994706006037065</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.76010063721566</v>
+        <v>16.40650949444533</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.37574431105844</v>
+        <v>23.98897181109146</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56387471760566</v>
+        <v>14.29058675869822</v>
       </c>
       <c r="C8">
-        <v>14.22362609886132</v>
+        <v>8.068871208454977</v>
       </c>
       <c r="D8">
-        <v>6.186904387687086</v>
+        <v>9.228669086768724</v>
       </c>
       <c r="E8">
-        <v>8.394236975477455</v>
+        <v>13.51687145352206</v>
       </c>
       <c r="F8">
-        <v>21.72276424115706</v>
+        <v>31.77222708533204</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.663744949934661</v>
+        <v>9.954340474956448</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.84776345587883</v>
+        <v>16.64636901303059</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.39356249562652</v>
+        <v>23.84359681464534</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.77885875541013</v>
+        <v>15.65587662853109</v>
       </c>
       <c r="C9">
-        <v>16.26422171550088</v>
+        <v>9.237314822502167</v>
       </c>
       <c r="D9">
-        <v>6.650049602514578</v>
+        <v>9.282031425263806</v>
       </c>
       <c r="E9">
-        <v>8.646758695525625</v>
+        <v>13.47668615368209</v>
       </c>
       <c r="F9">
-        <v>22.6013506435423</v>
+        <v>31.57621933887837</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.540354153352945</v>
+        <v>9.884915177762675</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.93344395602342</v>
+        <v>17.12200196913671</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.60602602492478</v>
+        <v>23.61343776194123</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.90561027577198</v>
+        <v>16.58992355463615</v>
       </c>
       <c r="C10">
-        <v>17.62141603237993</v>
+        <v>10.00344169797895</v>
       </c>
       <c r="D10">
-        <v>6.981749502166994</v>
+        <v>9.326025543748607</v>
       </c>
       <c r="E10">
-        <v>8.854826427817454</v>
+        <v>13.45775577746566</v>
       </c>
       <c r="F10">
-        <v>23.38341212657448</v>
+        <v>31.47962799472345</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.463818582986417</v>
+        <v>9.839815672502482</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.42457833744145</v>
+        <v>17.47200939203139</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.88389116880128</v>
+        <v>23.47824134432585</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.8232266797985</v>
+        <v>16.99833506246387</v>
       </c>
       <c r="C11">
-        <v>18.2082467856581</v>
+        <v>10.33193769106958</v>
       </c>
       <c r="D11">
-        <v>7.130290492340714</v>
+        <v>9.347039575943537</v>
       </c>
       <c r="E11">
-        <v>8.954427383761205</v>
+        <v>13.45144205011695</v>
       </c>
       <c r="F11">
-        <v>23.76984378849231</v>
+        <v>31.44608545964149</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.432345722760174</v>
+        <v>9.820576209307823</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.06884994534018</v>
+        <v>17.63080181295798</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.03936174491726</v>
+        <v>23.42418512782371</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.16363803642953</v>
+        <v>17.15051473763639</v>
       </c>
       <c r="C12">
-        <v>18.42610142782064</v>
+        <v>10.45345570203343</v>
       </c>
       <c r="D12">
-        <v>7.186167047266209</v>
+        <v>9.355137320339441</v>
       </c>
       <c r="E12">
-        <v>8.992858551792358</v>
+        <v>13.44938124640451</v>
       </c>
       <c r="F12">
-        <v>23.92064528108094</v>
+        <v>31.43488605235892</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.420934719543212</v>
+        <v>9.813473917002234</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.30798969133156</v>
+        <v>17.69082512370645</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.10260861524691</v>
+        <v>23.40479295468574</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.09063717150251</v>
+        <v>17.11785180156797</v>
       </c>
       <c r="C13">
-        <v>18.37937612273369</v>
+        <v>10.42741248761481</v>
       </c>
       <c r="D13">
-        <v>7.174150098282076</v>
+        <v>9.353387152423815</v>
       </c>
       <c r="E13">
-        <v>8.984549890837348</v>
+        <v>13.44981040427002</v>
       </c>
       <c r="F13">
-        <v>23.88796792402433</v>
+        <v>31.43723111780236</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.423369284924981</v>
+        <v>9.814995376027476</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.25670047868059</v>
+        <v>17.67790355863963</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.08878983582743</v>
+        <v>23.40892136226829</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.85137363632804</v>
+        <v>17.01090516702175</v>
       </c>
       <c r="C14">
-        <v>18.22625710745426</v>
+        <v>10.34199267495072</v>
       </c>
       <c r="D14">
-        <v>7.134895137734522</v>
+        <v>9.347702994628056</v>
       </c>
       <c r="E14">
-        <v>8.95757480410977</v>
+        <v>13.45126589390841</v>
       </c>
       <c r="F14">
-        <v>23.78216046729276</v>
+        <v>31.44513392826691</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.43139661035887</v>
+        <v>9.819988227965259</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.08862056437144</v>
+        <v>17.63574239236164</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.04447639631632</v>
+        <v>23.42256808251957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.70390010624027</v>
+        <v>16.94507182906415</v>
       </c>
       <c r="C15">
-        <v>18.13189980882636</v>
+        <v>10.28929610242234</v>
       </c>
       <c r="D15">
-        <v>7.110800873900577</v>
+        <v>9.344239426847194</v>
       </c>
       <c r="E15">
-        <v>8.941144910731978</v>
+        <v>13.45220039560199</v>
       </c>
       <c r="F15">
-        <v>23.71793380673046</v>
+        <v>31.45017048893863</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.436380439584556</v>
+        <v>9.82307035332823</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.98503952138519</v>
+        <v>17.60990204365361</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.01790818281735</v>
+        <v>23.43106765410072</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.84464703075531</v>
+        <v>16.56289168773323</v>
       </c>
       <c r="C16">
-        <v>17.58245257105571</v>
+        <v>9.981571036366315</v>
       </c>
       <c r="D16">
-        <v>6.971991602508301</v>
+        <v>9.324672051313268</v>
       </c>
       <c r="E16">
-        <v>8.848417098036517</v>
+        <v>13.45821460426529</v>
       </c>
       <c r="F16">
-        <v>23.35878022785245</v>
+        <v>31.48202994358</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.465944879881464</v>
+        <v>9.841098678834129</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.38179385882767</v>
+        <v>17.46161933630919</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.87433262411163</v>
+        <v>23.48192447715985</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.30482305045228</v>
+        <v>16.32413275469785</v>
       </c>
       <c r="C17">
-        <v>17.23757461571288</v>
+        <v>9.787665353699913</v>
       </c>
       <c r="D17">
-        <v>6.886208040674751</v>
+        <v>9.31292183631775</v>
       </c>
       <c r="E17">
-        <v>8.792801221128325</v>
+        <v>13.46249243060564</v>
       </c>
       <c r="F17">
-        <v>23.14635067924301</v>
+        <v>31.50424317059788</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.484955999350929</v>
+        <v>9.852485214181854</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.00304481912481</v>
+        <v>17.37050981741293</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.7938413332231</v>
+        <v>23.51503554513971</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.98963189311318</v>
+        <v>16.1852579700302</v>
       </c>
       <c r="C18">
-        <v>17.03633076986123</v>
+        <v>9.674251354537729</v>
       </c>
       <c r="D18">
-        <v>6.836648033643078</v>
+        <v>9.30625786478679</v>
       </c>
       <c r="E18">
-        <v>8.761278198921026</v>
+        <v>13.46516923046714</v>
       </c>
       <c r="F18">
-        <v>23.02705078129835</v>
+        <v>31.51799789787254</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.496203685746372</v>
+        <v>9.859154617685441</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.78198894604447</v>
+        <v>17.31806849659501</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.7502703214794</v>
+        <v>23.5347805310983</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88210365581874</v>
+        <v>16.13797513107634</v>
       </c>
       <c r="C19">
-        <v>16.96769780465807</v>
+        <v>9.635527607142027</v>
       </c>
       <c r="D19">
-        <v>6.819831303016199</v>
+        <v>9.304017890508534</v>
       </c>
       <c r="E19">
-        <v>8.750684961695447</v>
+        <v>13.46611270886407</v>
       </c>
       <c r="F19">
-        <v>22.98715126709745</v>
+        <v>31.52282279364503</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.500064955219704</v>
+        <v>9.861433411280968</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.70659011464128</v>
+        <v>17.30030775003258</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.73597987557556</v>
+        <v>23.5415859139313</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.36277383143729</v>
+        <v>16.34970996828608</v>
       </c>
       <c r="C20">
-        <v>17.2745852590229</v>
+        <v>9.808501980708433</v>
       </c>
       <c r="D20">
-        <v>6.895362840866484</v>
+        <v>9.314162919081662</v>
       </c>
       <c r="E20">
-        <v>8.798673403379285</v>
+        <v>13.46201466390617</v>
       </c>
       <c r="F20">
-        <v>23.16866523600784</v>
+        <v>31.50177723201544</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.482899657097131</v>
+        <v>9.851260663070658</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.04369501372748</v>
+        <v>17.38021280540426</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.80212624417743</v>
+        <v>23.51143827692524</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.92184220151065</v>
+        <v>17.04238597387436</v>
       </c>
       <c r="C21">
-        <v>18.27135007138701</v>
+        <v>10.36716057674707</v>
       </c>
       <c r="D21">
-        <v>7.146435633947569</v>
+        <v>9.349368795447159</v>
       </c>
       <c r="E21">
-        <v>8.965478628274424</v>
+        <v>13.45082942672123</v>
       </c>
       <c r="F21">
-        <v>23.81311699731025</v>
+        <v>31.44277185223563</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.42902480612211</v>
+        <v>9.818516734550823</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.13812030276929</v>
+        <v>17.64812944320007</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.05737216416992</v>
+        <v>23.41853040472588</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.8996235604239</v>
+        <v>17.48061394849053</v>
       </c>
       <c r="C22">
-        <v>18.89736816742889</v>
+        <v>10.71551353248104</v>
       </c>
       <c r="D22">
-        <v>7.308341801209789</v>
+        <v>9.373193151523459</v>
       </c>
       <c r="E22">
-        <v>9.078661431864022</v>
+        <v>13.44544287496419</v>
       </c>
       <c r="F22">
-        <v>24.26036936268201</v>
+        <v>31.41296844032321</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.396784204678906</v>
+        <v>9.798184822813537</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.82526030328497</v>
+        <v>17.82257854905934</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.24976161065987</v>
+        <v>23.36409479198404</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.38149531553659</v>
+        <v>17.24807897779555</v>
       </c>
       <c r="C23">
-        <v>18.56556495168321</v>
+        <v>10.53112347937823</v>
       </c>
       <c r="D23">
-        <v>7.222139285273296</v>
+        <v>9.360404317873446</v>
       </c>
       <c r="E23">
-        <v>9.017871462686887</v>
+        <v>13.44814190968994</v>
       </c>
       <c r="F23">
-        <v>24.01926018676528</v>
+        <v>31.42807136292397</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.413710538432208</v>
+        <v>9.808938705060109</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.46107182037338</v>
+        <v>17.72954631502131</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.14467990984534</v>
+        <v>23.39257072701384</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.33658936366993</v>
+        <v>16.33815151383497</v>
       </c>
       <c r="C24">
-        <v>17.25786199683198</v>
+        <v>9.799087769089427</v>
       </c>
       <c r="D24">
-        <v>6.891224706453798</v>
+        <v>9.313601540646205</v>
       </c>
       <c r="E24">
-        <v>8.796017184318412</v>
+        <v>13.46222998496326</v>
       </c>
       <c r="F24">
-        <v>23.15856801866141</v>
+        <v>31.50288901811567</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.483828341073702</v>
+        <v>9.851813899049638</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.0253273692858</v>
+        <v>17.37582627174573</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.79837222685539</v>
+        <v>23.51306239390518</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95082811392157</v>
+        <v>15.29807495653765</v>
       </c>
       <c r="C25">
-        <v>15.73717623444951</v>
+        <v>8.937427633310714</v>
       </c>
       <c r="D25">
-        <v>6.526074860846075</v>
+        <v>9.266741412232815</v>
       </c>
       <c r="E25">
-        <v>8.574505611812032</v>
+        <v>13.48569647954035</v>
       </c>
       <c r="F25">
-        <v>22.3400797133431</v>
+        <v>31.6209552838721</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.571342642262768</v>
+        <v>9.902657390386672</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.35372395208595</v>
+        <v>16.99304129737314</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.52809832543406</v>
+        <v>23.66977821040415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_161/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_161/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.48654696685571</v>
+        <v>21.0357075181607</v>
       </c>
       <c r="C2">
-        <v>8.240977258690494</v>
+        <v>14.52202683879621</v>
       </c>
       <c r="D2">
-        <v>9.235474447145386</v>
+        <v>6.251675127145996</v>
       </c>
       <c r="E2">
-        <v>13.51009371198972</v>
+        <v>8.426544217975524</v>
       </c>
       <c r="F2">
-        <v>31.73970379576936</v>
+        <v>21.82883022682497</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.944062962671381</v>
+        <v>5.645155005154326</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.71181436925981</v>
+        <v>15.13094006119541</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.80790824098548</v>
+        <v>15.40987418494827</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.91101951493271</v>
+        <v>19.63723411814868</v>
       </c>
       <c r="C3">
-        <v>7.730390033143972</v>
+        <v>13.63893731756793</v>
       </c>
       <c r="D3">
-        <v>9.216359259248561</v>
+        <v>6.063197342496264</v>
       </c>
       <c r="E3">
-        <v>13.53106918420202</v>
+        <v>8.335598849544398</v>
       </c>
       <c r="F3">
-        <v>31.83984451700819</v>
+        <v>21.53719699929983</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.974609070204281</v>
+        <v>5.700659386552167</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -489,13 +489,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.52247938479741</v>
+        <v>14.29660241703556</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.91556842161778</v>
+        <v>15.37565761430284</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.54625247433378</v>
+        <v>18.72843492882207</v>
       </c>
       <c r="C4">
-        <v>7.397928264072198</v>
+        <v>13.06747350851269</v>
       </c>
       <c r="D4">
-        <v>9.205663590727967</v>
+        <v>5.94659697979729</v>
       </c>
       <c r="E4">
-        <v>13.54613840086089</v>
+        <v>8.28430874722811</v>
       </c>
       <c r="F4">
-        <v>31.91096345801167</v>
+        <v>21.38425187339068</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.994593257764556</v>
+        <v>5.737334445634672</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.40714083840774</v>
+        <v>13.76308171582183</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.98855442043285</v>
+        <v>15.37569613785295</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.39495098139633</v>
+        <v>18.34541608796004</v>
       </c>
       <c r="C5">
-        <v>7.257699424193824</v>
+        <v>12.82728594808096</v>
       </c>
       <c r="D5">
-        <v>9.201569485162482</v>
+        <v>5.89892207137127</v>
       </c>
       <c r="E5">
-        <v>13.55282988678279</v>
+        <v>8.26454292528774</v>
       </c>
       <c r="F5">
-        <v>31.94235665550615</v>
+        <v>21.32833134266005</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.00304635976545</v>
+        <v>5.752917478866241</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -571,13 +571,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.36041412054752</v>
+        <v>13.5405085629883</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.02002025669163</v>
+        <v>15.38075907498776</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.36967364434069</v>
+        <v>18.28104857320493</v>
       </c>
       <c r="C6">
-        <v>7.234128484294719</v>
+        <v>12.78696302997576</v>
       </c>
       <c r="D6">
-        <v>9.200905709831332</v>
+        <v>5.890997917148792</v>
       </c>
       <c r="E6">
-        <v>13.55397425717083</v>
+        <v>8.261329088503157</v>
       </c>
       <c r="F6">
-        <v>31.94771481285352</v>
+        <v>21.31942747235957</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.00446868885881</v>
+        <v>5.755543127907623</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.35267307713041</v>
+        <v>13.50324494296837</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.02534901580603</v>
+        <v>15.38189732089253</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.54422242994908</v>
+        <v>18.72332081563953</v>
       </c>
       <c r="C7">
-        <v>7.396056282142316</v>
+        <v>13.06426378834523</v>
       </c>
       <c r="D7">
-        <v>9.205607301969509</v>
+        <v>5.945954581306533</v>
       </c>
       <c r="E7">
-        <v>13.54622641516094</v>
+        <v>8.284037595128027</v>
       </c>
       <c r="F7">
-        <v>31.91137708725528</v>
+        <v>21.38347200423903</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.994706006037065</v>
+        <v>5.73754204090912</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.40650949444533</v>
+        <v>13.76010063721567</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.98897181109146</v>
+        <v>15.37574431105853</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.29058675869822</v>
+        <v>20.56387471760563</v>
       </c>
       <c r="C8">
-        <v>8.068871208454977</v>
+        <v>14.22362609886131</v>
       </c>
       <c r="D8">
-        <v>9.228669086768724</v>
+        <v>6.186904387687123</v>
       </c>
       <c r="E8">
-        <v>13.51687145352206</v>
+        <v>8.394236975477501</v>
       </c>
       <c r="F8">
-        <v>31.77222708533204</v>
+        <v>21.72276424115729</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.954340474956448</v>
+        <v>5.66374494993469</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -694,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.64636901303059</v>
+        <v>14.84776345587884</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.84359681464534</v>
+        <v>15.3935624956267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.65587662853109</v>
+        <v>23.77885875541014</v>
       </c>
       <c r="C9">
-        <v>9.237314822502167</v>
+        <v>16.26422171550089</v>
       </c>
       <c r="D9">
-        <v>9.282031425263806</v>
+        <v>6.650049602514578</v>
       </c>
       <c r="E9">
-        <v>13.47668615368209</v>
+        <v>8.64675869552571</v>
       </c>
       <c r="F9">
-        <v>31.57621933887837</v>
+        <v>22.60135064354229</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.884915177762675</v>
+        <v>5.540354153352972</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.12200196913671</v>
+        <v>16.93344395602341</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.61343776194123</v>
+        <v>15.60602602492477</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.58992355463615</v>
+        <v>25.90561027577197</v>
       </c>
       <c r="C10">
-        <v>10.00344169797895</v>
+        <v>17.62141603237992</v>
       </c>
       <c r="D10">
-        <v>9.326025543748607</v>
+        <v>6.981749502167038</v>
       </c>
       <c r="E10">
-        <v>13.45775577746566</v>
+        <v>8.854826427817438</v>
       </c>
       <c r="F10">
-        <v>31.47962799472345</v>
+        <v>23.38341212657449</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.839815672502482</v>
+        <v>5.463818582986364</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.47200939203139</v>
+        <v>18.42457833744147</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.47824134432585</v>
+        <v>15.88389116880131</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.99833506246387</v>
+        <v>26.82322667979848</v>
       </c>
       <c r="C11">
-        <v>10.33193769106958</v>
+        <v>18.20824678565818</v>
       </c>
       <c r="D11">
-        <v>9.347039575943537</v>
+        <v>7.13029049234068</v>
       </c>
       <c r="E11">
-        <v>13.45144205011695</v>
+        <v>8.954427383761209</v>
       </c>
       <c r="F11">
-        <v>31.44608545964149</v>
+        <v>23.76984378849232</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.820576209307823</v>
+        <v>5.432345722760204</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.63080181295798</v>
+        <v>19.06884994534018</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.42418512782371</v>
+        <v>16.0393617449173</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.15051473763639</v>
+        <v>27.1636380364295</v>
       </c>
       <c r="C12">
-        <v>10.45345570203343</v>
+        <v>18.42610142782059</v>
       </c>
       <c r="D12">
-        <v>9.355137320339441</v>
+        <v>7.186167047266183</v>
       </c>
       <c r="E12">
-        <v>13.44938124640451</v>
+        <v>8.992858551792283</v>
       </c>
       <c r="F12">
-        <v>31.43488605235892</v>
+        <v>23.92064528108099</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.813473917002234</v>
+        <v>5.420934719543182</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.69082512370645</v>
+        <v>19.30798969133154</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.40479295468574</v>
+        <v>16.10260861524699</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.11785180156797</v>
+        <v>27.09063717150255</v>
       </c>
       <c r="C13">
-        <v>10.42741248761481</v>
+        <v>18.37937612273363</v>
       </c>
       <c r="D13">
-        <v>9.353387152423815</v>
+        <v>7.174150098282088</v>
       </c>
       <c r="E13">
-        <v>13.44981040427002</v>
+        <v>8.984549890837384</v>
       </c>
       <c r="F13">
-        <v>31.43723111780236</v>
+        <v>23.88796792402429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.814995376027476</v>
+        <v>5.423369284924982</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.67790355863963</v>
+        <v>19.25670047868062</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.40892136226829</v>
+        <v>16.08878983582737</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.01090516702175</v>
+        <v>26.85137363632806</v>
       </c>
       <c r="C14">
-        <v>10.34199267495072</v>
+        <v>18.22625710745427</v>
       </c>
       <c r="D14">
-        <v>9.347702994628056</v>
+        <v>7.134895137734405</v>
       </c>
       <c r="E14">
-        <v>13.45126589390841</v>
+        <v>8.957574804109674</v>
       </c>
       <c r="F14">
-        <v>31.44513392826691</v>
+        <v>23.78216046729262</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.819988227965259</v>
+        <v>5.431396610358821</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.63574239236164</v>
+        <v>19.0886205643715</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.42256808251957</v>
+        <v>16.04447639631621</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.94507182906415</v>
+        <v>26.70390010624024</v>
       </c>
       <c r="C15">
-        <v>10.28929610242234</v>
+        <v>18.13189980882644</v>
       </c>
       <c r="D15">
-        <v>9.344239426847194</v>
+        <v>7.110800873900564</v>
       </c>
       <c r="E15">
-        <v>13.45220039560199</v>
+        <v>8.941144910731975</v>
       </c>
       <c r="F15">
-        <v>31.45017048893863</v>
+        <v>23.71793380673051</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.82307035332823</v>
+        <v>5.436380439584611</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.60990204365361</v>
+        <v>18.98503952138517</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.43106765410072</v>
+        <v>16.0179081828174</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.56289168773323</v>
+        <v>25.84464703075539</v>
       </c>
       <c r="C16">
-        <v>9.981571036366315</v>
+        <v>17.58245257105569</v>
       </c>
       <c r="D16">
-        <v>9.324672051313268</v>
+        <v>6.971991602508439</v>
       </c>
       <c r="E16">
-        <v>13.45821460426529</v>
+        <v>8.848417098036521</v>
       </c>
       <c r="F16">
-        <v>31.48202994358</v>
+        <v>23.35878022785234</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.841098678834129</v>
+        <v>5.465944879881403</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.46161933630919</v>
+        <v>18.38179385882769</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.48192447715985</v>
+        <v>15.87433262411145</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.32413275469785</v>
+        <v>25.30482305045224</v>
       </c>
       <c r="C17">
-        <v>9.787665353699913</v>
+        <v>17.23757461571287</v>
       </c>
       <c r="D17">
-        <v>9.31292183631775</v>
+        <v>6.886208040674669</v>
       </c>
       <c r="E17">
-        <v>13.46249243060564</v>
+        <v>8.792801221128292</v>
       </c>
       <c r="F17">
-        <v>31.50424317059788</v>
+        <v>23.14635067924314</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.852485214181854</v>
+        <v>5.484955999350904</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.37050981741293</v>
+        <v>18.0030448191248</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.51503554513971</v>
+        <v>15.79384133322324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.1852579700302</v>
+        <v>24.9896318931132</v>
       </c>
       <c r="C18">
-        <v>9.674251354537729</v>
+        <v>17.03633076986118</v>
       </c>
       <c r="D18">
-        <v>9.30625786478679</v>
+        <v>6.836648033643066</v>
       </c>
       <c r="E18">
-        <v>13.46516923046714</v>
+        <v>8.761278198921067</v>
       </c>
       <c r="F18">
-        <v>31.51799789787254</v>
+        <v>23.02705078129854</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.859154617685441</v>
+        <v>5.496203685746315</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.31806849659501</v>
+        <v>17.78198894604447</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.5347805310983</v>
+        <v>15.75027032147954</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.13797513107634</v>
+        <v>24.8821036558188</v>
       </c>
       <c r="C19">
-        <v>9.635527607142027</v>
+        <v>16.96769780465812</v>
       </c>
       <c r="D19">
-        <v>9.304017890508534</v>
+        <v>6.81983130301631</v>
       </c>
       <c r="E19">
-        <v>13.46611270886407</v>
+        <v>8.750684961695413</v>
       </c>
       <c r="F19">
-        <v>31.52282279364503</v>
+        <v>22.98715126709734</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.861433411280968</v>
+        <v>5.500064955219647</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.30030775003258</v>
+        <v>17.70659011464133</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.5415859139313</v>
+        <v>15.73597987557543</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.34970996828608</v>
+        <v>25.36277383143734</v>
       </c>
       <c r="C20">
-        <v>9.808501980708433</v>
+        <v>17.27458525902294</v>
       </c>
       <c r="D20">
-        <v>9.314162919081662</v>
+        <v>6.89536284086645</v>
       </c>
       <c r="E20">
-        <v>13.46201466390617</v>
+        <v>8.798673403379214</v>
       </c>
       <c r="F20">
-        <v>31.50177723201544</v>
+        <v>23.16866523600769</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.851260663070658</v>
+        <v>5.482899657097104</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.38021280540426</v>
+        <v>18.04369501372753</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.51143827692524</v>
+        <v>15.80212624417728</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.04238597387436</v>
+        <v>26.92184220151071</v>
       </c>
       <c r="C21">
-        <v>10.36716057674707</v>
+        <v>18.27135007138697</v>
       </c>
       <c r="D21">
-        <v>9.349368795447159</v>
+        <v>7.146435633947561</v>
       </c>
       <c r="E21">
-        <v>13.45082942672123</v>
+        <v>8.965478628274461</v>
       </c>
       <c r="F21">
-        <v>31.44277185223563</v>
+        <v>23.81311699731014</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.818516734550823</v>
+        <v>5.429024806122166</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.64812944320007</v>
+        <v>19.13812030276934</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.41853040472588</v>
+        <v>16.05737216416983</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.48061394849053</v>
+        <v>27.89962356042398</v>
       </c>
       <c r="C22">
-        <v>10.71551353248104</v>
+        <v>18.89736816742885</v>
       </c>
       <c r="D22">
-        <v>9.373193151523459</v>
+        <v>7.308341801209741</v>
       </c>
       <c r="E22">
-        <v>13.44544287496419</v>
+        <v>9.07866143186399</v>
       </c>
       <c r="F22">
-        <v>31.41296844032321</v>
+        <v>24.26036936268196</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.798184822813537</v>
+        <v>5.39678420467894</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.82257854905934</v>
+        <v>19.82526030328502</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.36409479198404</v>
+        <v>16.24976161065983</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.24807897779555</v>
+        <v>27.38149531553655</v>
       </c>
       <c r="C23">
-        <v>10.53112347937823</v>
+        <v>18.56556495168327</v>
       </c>
       <c r="D23">
-        <v>9.360404317873446</v>
+        <v>7.22213928527331</v>
       </c>
       <c r="E23">
-        <v>13.44814190968994</v>
+        <v>9.017871462686884</v>
       </c>
       <c r="F23">
-        <v>31.42807136292397</v>
+        <v>24.01926018676527</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.808938705060109</v>
+        <v>5.413710538432262</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.72954631502131</v>
+        <v>19.46107182037337</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.39257072701384</v>
+        <v>16.14467990984533</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.33815151383497</v>
+        <v>25.33658936366996</v>
       </c>
       <c r="C24">
-        <v>9.799087769089427</v>
+        <v>17.25786199683212</v>
       </c>
       <c r="D24">
-        <v>9.313601540646205</v>
+        <v>6.891224706453924</v>
       </c>
       <c r="E24">
-        <v>13.46222998496326</v>
+        <v>8.796017184318478</v>
       </c>
       <c r="F24">
-        <v>31.50288901811567</v>
+        <v>23.15856801866131</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.851813899049638</v>
+        <v>5.483828341073668</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.37582627174573</v>
+        <v>18.02532736928583</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.51306239390518</v>
+        <v>15.7983722268553</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.29807495653765</v>
+        <v>22.95082811392157</v>
       </c>
       <c r="C25">
-        <v>8.937427633310714</v>
+        <v>15.73717623444943</v>
       </c>
       <c r="D25">
-        <v>9.266741412232815</v>
+        <v>6.526074860846079</v>
       </c>
       <c r="E25">
-        <v>13.48569647954035</v>
+        <v>8.574505611812114</v>
       </c>
       <c r="F25">
-        <v>31.6209552838721</v>
+        <v>22.34007971334314</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.902657390386672</v>
+        <v>5.571342642262887</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.99304129737314</v>
+        <v>16.35372395208593</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.66977821040415</v>
+        <v>15.52809832543409</v>
       </c>
     </row>
   </sheetData>
